--- a/ME365/Labs/Lab4/Lab4_440AG4_stat.xlsx
+++ b/ME365/Labs/Lab4/Lab4_440AG4_stat.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>Sample</t>
   </si>
@@ -43,10 +43,16 @@
     <t>true_mean-</t>
   </si>
   <si>
+    <t>meanDiff</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
     <t>NaN</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -404,13 +410,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,93 +456,99 @@
       <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="E2">
+        <v>18</v>
+      </c>
+      <c r="F2">
+        <v>20</v>
+      </c>
+      <c r="G2">
+        <v>20</v>
+      </c>
+      <c r="H2">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2">
+        <v>19.5</v>
+      </c>
+      <c r="K2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>0.091</v>
-      </c>
-      <c r="E2">
-        <v>30</v>
-      </c>
-      <c r="F2">
-        <v>30</v>
-      </c>
-      <c r="G2">
-        <v>30</v>
-      </c>
-      <c r="H2">
-        <v>30</v>
-      </c>
-      <c r="I2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2">
-        <v>30</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
       <c r="L2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>0.08</v>
+        <v>0.077</v>
       </c>
       <c r="D3">
-        <v>12.0879120879121</v>
+        <v>8.333333333333339</v>
       </c>
       <c r="E3">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F3">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G3">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="H3">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J3">
-        <v>30.25</v>
+        <v>22</v>
       </c>
       <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
         <v>0.5</v>
       </c>
-      <c r="L3">
-        <v>0.25</v>
-      </c>
       <c r="M3">
-        <v>0.136890733791762</v>
+        <v>-1.634886019376845</v>
       </c>
       <c r="N3">
-        <v>-0.636890733791762</v>
+        <v>-3.365113980623155</v>
+      </c>
+      <c r="O3" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -544,128 +556,137 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.07199999999999999</v>
+        <v>0.065</v>
       </c>
       <c r="D4">
-        <v>20.8791208791209</v>
+        <v>22.6190476190476</v>
       </c>
       <c r="E4">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F4">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G4">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H4">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J4">
-        <v>30</v>
+        <v>25.75</v>
       </c>
       <c r="K4">
-        <v>0.816496580927726</v>
+        <v>0.9574271077563381</v>
       </c>
       <c r="L4">
-        <v>0.408248290463863</v>
+        <v>0.9787135538781691</v>
       </c>
       <c r="M4">
-        <v>0.6317899226671853</v>
+        <v>-4.556602443029245</v>
       </c>
       <c r="N4">
-        <v>-0.6317899226671853</v>
+        <v>-7.943397556970755</v>
+      </c>
+      <c r="O4" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>0.053</v>
+        <v>0.052</v>
       </c>
       <c r="D5">
-        <v>41.7582417582418</v>
+        <v>38.0952380952381</v>
       </c>
       <c r="E5">
+        <v>28</v>
+      </c>
+      <c r="F5">
+        <v>27</v>
+      </c>
+      <c r="G5">
+        <v>28</v>
+      </c>
+      <c r="H5">
         <v>31</v>
       </c>
-      <c r="F5">
-        <v>31</v>
-      </c>
-      <c r="G5">
-        <v>30</v>
-      </c>
-      <c r="H5">
-        <v>32</v>
-      </c>
       <c r="I5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J5">
-        <v>31</v>
+        <v>28.5</v>
       </c>
       <c r="K5">
-        <v>0.816496580927726</v>
+        <v>1.732050807568877</v>
       </c>
       <c r="L5">
-        <v>0.408248290463863</v>
+        <v>1.366025403784439</v>
       </c>
       <c r="M5">
-        <v>-0.3682100773328147</v>
+        <v>-6.636464650599384</v>
       </c>
       <c r="N5">
-        <v>-1.631789922667185</v>
+        <v>-11.36353534940062</v>
+      </c>
+      <c r="O5" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>0.048</v>
+        <v>0.04</v>
       </c>
       <c r="D6">
-        <v>47.2527472527472</v>
+        <v>52.3809523809524</v>
       </c>
       <c r="E6">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F6">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G6">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H6">
-        <v>35.5</v>
+        <v>29</v>
       </c>
       <c r="I6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J6">
-        <v>34.125</v>
+        <v>29.25</v>
       </c>
       <c r="K6">
-        <v>1.030776406404415</v>
+        <v>0.5</v>
       </c>
       <c r="L6">
-        <v>0.5153882032022076</v>
+        <v>0.75</v>
       </c>
       <c r="M6">
-        <v>-3.327404319501921</v>
+        <v>-8.452329029065268</v>
       </c>
       <c r="N6">
-        <v>-4.922595680498079</v>
+        <v>-11.04767097093473</v>
+      </c>
+      <c r="O6" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/ME365/Labs/Lab4/Lab4_440AG4_stat.xlsx
+++ b/ME365/Labs/Lab4/Lab4_440AG4_stat.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t>Sample</t>
   </si>
@@ -500,6 +500,9 @@
       <c r="N2" t="s">
         <v>11</v>
       </c>
+      <c r="O2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">

--- a/ME365/Labs/Lab4/Lab4_440AG4_stat.xlsx
+++ b/ME365/Labs/Lab4/Lab4_440AG4_stat.xlsx
@@ -492,7 +492,7 @@
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" t="s">
         <v>11</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>-1.634886019376845</v>
+        <v>-2.5</v>
       </c>
       <c r="N3">
-        <v>-3.365113980623155</v>
+        <v>-2.5</v>
       </c>
       <c r="O3" t="s">
         <v>12</v>
@@ -586,13 +586,13 @@
         <v>0.9574271077563381</v>
       </c>
       <c r="L4">
-        <v>0.9787135538781691</v>
+        <v>0.9789450103725609</v>
       </c>
       <c r="M4">
-        <v>-4.556602443029245</v>
+        <v>-4.556201970530837</v>
       </c>
       <c r="N4">
-        <v>-7.943397556970755</v>
+        <v>-7.943798029469163</v>
       </c>
       <c r="O4" t="s">
         <v>12</v>
@@ -633,13 +633,13 @@
         <v>1.732050807568877</v>
       </c>
       <c r="L5">
-        <v>1.366025403784439</v>
+        <v>1.414213562373095</v>
       </c>
       <c r="M5">
-        <v>-6.636464650599384</v>
+        <v>-6.553088151208319</v>
       </c>
       <c r="N5">
-        <v>-11.36353534940062</v>
+        <v>-11.44691184879168</v>
       </c>
       <c r="O5" t="s">
         <v>12</v>
@@ -680,13 +680,13 @@
         <v>0.5</v>
       </c>
       <c r="L6">
-        <v>0.75</v>
+        <v>0.7905694150420949</v>
       </c>
       <c r="M6">
-        <v>-8.452329029065268</v>
+        <v>-8.382134692788028</v>
       </c>
       <c r="N6">
-        <v>-11.04767097093473</v>
+        <v>-11.11786530721197</v>
       </c>
       <c r="O6" t="s">
         <v>12</v>
